--- a/LF/lf_pretas_tas_3_resultat_fts.xlsx
+++ b/LF/lf_pretas_tas_3_resultat_fts.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
   <si>
     <t>form_title</t>
   </si>
@@ -433,9 +433,6 @@
     <t>Le premier résultat du test de ce participant est $ {d_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le deuxième résultat du test du participant.</t>
   </si>
   <si>
-    <t>${d_display_result1}</t>
-  </si>
-  <si>
     <t>d_lotnumber2</t>
   </si>
   <si>
@@ -443,9 +440,6 @@
   </si>
   <si>
     <t>${d_result1} != 'Negative'  and selected(${d_why_invalid2},'Other')</t>
-  </si>
-  <si>
-    <t>${d_display_result2}</t>
   </si>
   <si>
     <t xml:space="preserve">if(${d_result1}="Positive" and ${d_result2}="Positive", "Positive",
@@ -462,9 +456,6 @@
 </t>
   </si>
   <si>
-    <t>${d_final_result} != 'Positive'</t>
-  </si>
-  <si>
     <t>3. Pre TAS FL Form FTS Result</t>
   </si>
   <si>
@@ -493,6 +484,21 @@
   </si>
   <si>
     <t xml:space="preserve">This participant's first test result was ${d_display_result1}.  This result requires a second test.  Continue this questionnaire to enter the participant's second test result.  </t>
+  </si>
+  <si>
+    <t>${d_result1}</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>${d_IDType} = "Scanner"</t>
+  </si>
+  <si>
+    <t>${d_IDType} = "ID_generation"</t>
+  </si>
+  <si>
+    <t>${d_final_result} = 'Positive'</t>
   </si>
 </sst>
 </file>
@@ -946,10 +952,10 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12:K22"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1114,7 @@
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1148,7 +1154,9 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1172,7 +1180,9 @@
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1223,7 +1233,9 @@
       <c r="J9" s="8"/>
       <c r="K9" s="3"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
     </row>
@@ -1245,6 +1257,9 @@
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="4"/>
+      <c r="M10" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1262,6 +1277,9 @@
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="4"/>
+      <c r="M11" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1281,6 +1299,9 @@
         <v>132</v>
       </c>
       <c r="L12" s="4"/>
+      <c r="M12" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1294,7 +1315,10 @@
       <c r="E13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1305,7 +1329,7 @@
         <v>79</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -1314,7 +1338,10 @@
         <v>133</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1322,7 +1349,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>105</v>
@@ -1333,7 +1360,10 @@
       </c>
       <c r="F15"/>
       <c r="K15" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1353,10 +1383,13 @@
         <v>106</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>131</v>
       </c>
@@ -1373,10 +1406,13 @@
         <v>96</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1393,10 +1429,13 @@
         <v>96</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -1404,13 +1443,13 @@
         <v>84</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -1418,13 +1457,13 @@
         <v>85</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -1432,7 +1471,7 @@
         <v>86</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
         <v>57</v>
@@ -1441,10 +1480,10 @@
         <v>97</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1461,10 +1500,10 @@
         <v>98</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1481,7 +1520,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1489,7 +1528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -1509,7 +1548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:B19"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1719,7 +1758,7 @@
         <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
         <v>115</v>
@@ -1733,7 +1772,7 @@
         <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>116</v>
@@ -1747,7 +1786,7 @@
         <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
         <v>117</v>
@@ -1761,7 +1800,7 @@
         <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
         <v>118</v>
@@ -1775,7 +1814,7 @@
         <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
         <v>119</v>
@@ -1789,7 +1828,7 @@
         <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
         <v>120</v>
@@ -1851,10 +1890,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <v>20200402</v>
